--- a/Entregaveis/1.RepositorioSemantico/Devices/CargaDevices/medical-devices-snomed-ct-ips-free-set.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Devices/CargaDevices/medical-devices-snomed-ct-ips-free-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Devices/CargaDevices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CE5373-F48B-A548-A6A6-8002C5FE3C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DC03F-152E-3D43-B159-E1145637F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{1B4B3454-5230-7A48-94C6-7AAE93667249}"/>
   </bookViews>
@@ -477,18 +477,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,23 +509,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,12 +838,12 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
   </cols>
@@ -874,7 +863,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -883,590 +872,587 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>705991002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>90134004</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>17107009</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>14423008</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>2282003</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>271003</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://hl7.org/fhir/uv/ips/ValueSet/medical-devices-snomed-ct-ips-free-set" xr:uid="{0F624D32-9A39-2445-9FB1-C0C90AD60946}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>